--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cd160-Tnfrsf14.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Cd160-Tnfrsf14.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.106442666666667</v>
+        <v>0.5569716666666666</v>
       </c>
       <c r="H2">
-        <v>6.319328</v>
+        <v>1.670915</v>
       </c>
       <c r="I2">
-        <v>0.6232646226081526</v>
+        <v>0.3425729542218473</v>
       </c>
       <c r="J2">
-        <v>0.6232646226081526</v>
+        <v>0.3425729542218473</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.810423666666666</v>
+        <v>3.558321333333333</v>
       </c>
       <c r="N2">
-        <v>20.431271</v>
+        <v>10.674964</v>
       </c>
       <c r="O2">
-        <v>0.4869218264300074</v>
+        <v>0.3039644761000113</v>
       </c>
       <c r="P2">
-        <v>0.4869218264300074</v>
+        <v>0.3039644761000113</v>
       </c>
       <c r="Q2">
-        <v>14.34576698954311</v>
+        <v>1.981884163562222</v>
       </c>
       <c r="R2">
-        <v>129.111902905888</v>
+        <v>17.83695747206</v>
       </c>
       <c r="S2">
-        <v>0.303481148389571</v>
+        <v>0.104130008556077</v>
       </c>
       <c r="T2">
-        <v>0.303481148389571</v>
+        <v>0.104130008556077</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.106442666666667</v>
+        <v>0.5569716666666666</v>
       </c>
       <c r="H3">
-        <v>6.319328</v>
+        <v>1.670915</v>
       </c>
       <c r="I3">
-        <v>0.6232646226081526</v>
+        <v>0.3425729542218473</v>
       </c>
       <c r="J3">
-        <v>0.6232646226081526</v>
+        <v>0.3425729542218473</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.383140666666666</v>
+        <v>5.383140666666667</v>
       </c>
       <c r="N3">
         <v>16.149422</v>
       </c>
       <c r="O3">
-        <v>0.3848760097220061</v>
+        <v>0.4598470400038817</v>
       </c>
       <c r="P3">
-        <v>0.3848760097220061</v>
+        <v>0.4598470400038817</v>
       </c>
       <c r="Q3">
-        <v>11.33927718093511</v>
+        <v>2.998256829014444</v>
       </c>
       <c r="R3">
-        <v>102.053494628416</v>
+        <v>26.98431146113</v>
       </c>
       <c r="S3">
-        <v>0.2398796009503179</v>
+        <v>0.1575311589843018</v>
       </c>
       <c r="T3">
-        <v>0.2398796009503179</v>
+        <v>0.1575311589843017</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.106442666666667</v>
+        <v>0.5569716666666666</v>
       </c>
       <c r="H4">
-        <v>6.319328</v>
+        <v>1.670915</v>
       </c>
       <c r="I4">
-        <v>0.6232646226081526</v>
+        <v>0.3425729542218473</v>
       </c>
       <c r="J4">
-        <v>0.6232646226081526</v>
+        <v>0.3425729542218473</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.793123666666667</v>
+        <v>2.764910333333333</v>
       </c>
       <c r="N4">
-        <v>5.379371</v>
+        <v>8.294730999999999</v>
       </c>
       <c r="O4">
-        <v>0.1282021638479865</v>
+        <v>0.2361884838961071</v>
       </c>
       <c r="P4">
-        <v>0.1282021638479865</v>
+        <v>0.236188483896107</v>
       </c>
       <c r="Q4">
-        <v>3.777112198076444</v>
+        <v>1.539976716540555</v>
       </c>
       <c r="R4">
-        <v>33.994009782688</v>
+        <v>13.859790448865</v>
       </c>
       <c r="S4">
-        <v>0.07990387326826387</v>
+        <v>0.0809117866814686</v>
       </c>
       <c r="T4">
-        <v>0.07990387326826387</v>
+        <v>0.08091178668146859</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.6936943333333332</v>
+        <v>0.6936943333333333</v>
       </c>
       <c r="H5">
         <v>2.081083</v>
       </c>
       <c r="I5">
-        <v>0.2052536932109303</v>
+        <v>0.4266660789393025</v>
       </c>
       <c r="J5">
-        <v>0.2052536932109303</v>
+        <v>0.4266660789393025</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.810423666666666</v>
+        <v>3.558321333333333</v>
       </c>
       <c r="N5">
-        <v>20.431271</v>
+        <v>10.674964</v>
       </c>
       <c r="O5">
-        <v>0.4869218264300074</v>
+        <v>0.3039644761000113</v>
       </c>
       <c r="P5">
-        <v>0.4869218264300074</v>
+        <v>0.3039644761000113</v>
       </c>
       <c r="Q5">
-        <v>4.724352305165888</v>
+        <v>2.468387345112444</v>
       </c>
       <c r="R5">
-        <v>42.51917074649299</v>
+        <v>22.215486106012</v>
       </c>
       <c r="S5">
-        <v>0.0999425031797706</v>
+        <v>0.1296913311544312</v>
       </c>
       <c r="T5">
-        <v>0.0999425031797706</v>
+        <v>0.1296913311544311</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.6936943333333332</v>
+        <v>0.6936943333333333</v>
       </c>
       <c r="H6">
         <v>2.081083</v>
       </c>
       <c r="I6">
-        <v>0.2052536932109303</v>
+        <v>0.4266660789393025</v>
       </c>
       <c r="J6">
-        <v>0.2052536932109303</v>
+        <v>0.4266660789393025</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.383140666666666</v>
+        <v>5.383140666666667</v>
       </c>
       <c r="N6">
         <v>16.149422</v>
       </c>
       <c r="O6">
-        <v>0.3848760097220061</v>
+        <v>0.4598470400038817</v>
       </c>
       <c r="P6">
-        <v>0.3848760097220061</v>
+        <v>0.4598470400038817</v>
       </c>
       <c r="Q6">
-        <v>3.734254176002888</v>
+        <v>3.734254176002889</v>
       </c>
       <c r="R6">
-        <v>33.60828758402599</v>
+        <v>33.608287584026</v>
       </c>
       <c r="S6">
-        <v>0.07899722242372768</v>
+        <v>0.1962011334703008</v>
       </c>
       <c r="T6">
-        <v>0.0789972224237277</v>
+        <v>0.1962011334703007</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.6936943333333332</v>
+        <v>0.6936943333333333</v>
       </c>
       <c r="H7">
         <v>2.081083</v>
       </c>
       <c r="I7">
-        <v>0.2052536932109303</v>
+        <v>0.4266660789393025</v>
       </c>
       <c r="J7">
-        <v>0.2052536932109303</v>
+        <v>0.4266660789393025</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.793123666666667</v>
+        <v>2.764910333333333</v>
       </c>
       <c r="N7">
-        <v>5.379371</v>
+        <v>8.294730999999999</v>
       </c>
       <c r="O7">
-        <v>0.1282021638479865</v>
+        <v>0.2361884838961071</v>
       </c>
       <c r="P7">
-        <v>0.1282021638479865</v>
+        <v>0.236188483896107</v>
       </c>
       <c r="Q7">
-        <v>1.243879726532555</v>
+        <v>1.918002630408111</v>
       </c>
       <c r="R7">
-        <v>11.194917538793</v>
+        <v>17.262023673673</v>
       </c>
       <c r="S7">
-        <v>0.02631396760743205</v>
+        <v>0.1007736143145706</v>
       </c>
       <c r="T7">
-        <v>0.02631396760743205</v>
+        <v>0.1007736143145706</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.5795553333333333</v>
+        <v>0.3751823333333333</v>
       </c>
       <c r="H8">
-        <v>1.738666</v>
+        <v>1.125547</v>
       </c>
       <c r="I8">
-        <v>0.1714816841809171</v>
+        <v>0.2307609668388503</v>
       </c>
       <c r="J8">
-        <v>0.1714816841809171</v>
+        <v>0.2307609668388503</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.810423666666666</v>
+        <v>3.558321333333333</v>
       </c>
       <c r="N8">
-        <v>20.431271</v>
+        <v>10.674964</v>
       </c>
       <c r="O8">
-        <v>0.4869218264300074</v>
+        <v>0.3039644761000113</v>
       </c>
       <c r="P8">
-        <v>0.4869218264300074</v>
+        <v>0.3039644761000113</v>
       </c>
       <c r="Q8">
-        <v>3.947017358276222</v>
+        <v>1.335019300589778</v>
       </c>
       <c r="R8">
-        <v>35.523156224486</v>
+        <v>12.015173705308</v>
       </c>
       <c r="S8">
-        <v>0.08349817486066584</v>
+        <v>0.07014313638950322</v>
       </c>
       <c r="T8">
-        <v>0.08349817486066585</v>
+        <v>0.0701431363895032</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.5795553333333333</v>
+        <v>0.3751823333333333</v>
       </c>
       <c r="H9">
-        <v>1.738666</v>
+        <v>1.125547</v>
       </c>
       <c r="I9">
-        <v>0.1714816841809171</v>
+        <v>0.2307609668388503</v>
       </c>
       <c r="J9">
-        <v>0.1714816841809171</v>
+        <v>0.2307609668388503</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -986,28 +986,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.383140666666666</v>
+        <v>5.383140666666667</v>
       </c>
       <c r="N9">
         <v>16.149422</v>
       </c>
       <c r="O9">
-        <v>0.3848760097220061</v>
+        <v>0.4598470400038817</v>
       </c>
       <c r="P9">
-        <v>0.3848760097220061</v>
+        <v>0.4598470400038817</v>
       </c>
       <c r="Q9">
-        <v>3.119827883450222</v>
+        <v>2.019659275981556</v>
       </c>
       <c r="R9">
-        <v>28.078450951052</v>
+        <v>18.176933483834</v>
       </c>
       <c r="S9">
-        <v>0.06599918634796062</v>
+        <v>0.1061147475492792</v>
       </c>
       <c r="T9">
-        <v>0.06599918634796063</v>
+        <v>0.1061147475492792</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.5795553333333333</v>
+        <v>0.3751823333333333</v>
       </c>
       <c r="H10">
-        <v>1.738666</v>
+        <v>1.125547</v>
       </c>
       <c r="I10">
-        <v>0.1714816841809171</v>
+        <v>0.2307609668388503</v>
       </c>
       <c r="J10">
-        <v>0.1714816841809171</v>
+        <v>0.2307609668388503</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.793123666666667</v>
+        <v>2.764910333333333</v>
       </c>
       <c r="N10">
-        <v>5.379371</v>
+        <v>8.294730999999999</v>
       </c>
       <c r="O10">
-        <v>0.1282021638479865</v>
+        <v>0.2361884838961071</v>
       </c>
       <c r="P10">
-        <v>0.1282021638479865</v>
+        <v>0.236188483896107</v>
       </c>
       <c r="Q10">
-        <v>1.039214384342889</v>
+        <v>1.037345510317444</v>
       </c>
       <c r="R10">
-        <v>9.352929459086001</v>
+        <v>9.336109592856999</v>
       </c>
       <c r="S10">
-        <v>0.02198432297229061</v>
+        <v>0.05450308290006789</v>
       </c>
       <c r="T10">
-        <v>0.02198432297229061</v>
+        <v>0.05450308290006788</v>
       </c>
     </row>
   </sheetData>
